--- a/medicine/Mort/Cimetière_de_l'église_Saint-Marcellin-et-Saint-Pierre_d'Hasnon/Cimetière_de_l'église_Saint-Marcellin-et-Saint-Pierre_d'Hasnon.xlsx
+++ b/medicine/Mort/Cimetière_de_l'église_Saint-Marcellin-et-Saint-Pierre_d'Hasnon/Cimetière_de_l'église_Saint-Marcellin-et-Saint-Pierre_d'Hasnon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27%C3%A9glise_Saint-Marcellin-et-Saint-Pierre_d%27Hasnon</t>
+          <t>Cimetière_de_l'église_Saint-Marcellin-et-Saint-Pierre_d'Hasnon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de l'église Saint-Marcellin-et-Saint-Pierre est un cimetière situé autour de l'église Saint-Marcellin-et-Saint-Pierre d'Hasnon, dans le Nord, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_l%27%C3%A9glise_Saint-Marcellin-et-Saint-Pierre_d%27Hasnon</t>
+          <t>Cimetière_de_l'église_Saint-Marcellin-et-Saint-Pierre_d'Hasnon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est établi autour de l'église Saint-Marcellin-et-Saint-Pierre. Le cimetière ancien est localisé au sud de l'édifice, tandis que la partie plus récente l'est au nord. Le cimetière s'étend vers l'est.
 On y trouve notamment la tombe de Clément Larivière, ancien maire, ainsi qu'un monument aux morts de la Première Guerre mondiale.
